--- a/Sep19/pos_gains/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/pos_gains/Tables/income_no_tax_havens.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -422,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -450,68 +453,102 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.04779280603508578</v>
@@ -561,10 +598,34 @@
       <c r="Q4">
         <v>0.2150956608568527</v>
       </c>
+      <c r="R4">
+        <v>957691691302</v>
+      </c>
+      <c r="S4">
+        <v>957942582918</v>
+      </c>
+      <c r="T4">
+        <v>955500195836</v>
+      </c>
+      <c r="U4">
+        <v>955751087452</v>
+      </c>
+      <c r="V4">
+        <v>1007534436142</v>
+      </c>
+      <c r="W4">
+        <v>1007534436142</v>
+      </c>
+      <c r="X4">
+        <v>1007534436142</v>
+      </c>
+      <c r="Y4">
+        <v>1007534436142</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.1182154099626835</v>
@@ -614,10 +675,34 @@
       <c r="Q5">
         <v>-0.1999315794267103</v>
       </c>
+      <c r="R5">
+        <v>-269766813</v>
+      </c>
+      <c r="S5">
+        <v>-269766813</v>
+      </c>
+      <c r="T5">
+        <v>-269766813</v>
+      </c>
+      <c r="U5">
+        <v>-269766813</v>
+      </c>
+      <c r="V5">
+        <v>-269766813</v>
+      </c>
+      <c r="W5">
+        <v>-269766813</v>
+      </c>
+      <c r="X5">
+        <v>-269766813</v>
+      </c>
+      <c r="Y5">
+        <v>-269766813</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.02344311549294481</v>
@@ -667,10 +752,34 @@
       <c r="Q6">
         <v>0.4401966017285495</v>
       </c>
+      <c r="R6">
+        <v>1507896554</v>
+      </c>
+      <c r="S6">
+        <v>15012781826</v>
+      </c>
+      <c r="T6">
+        <v>1074779159</v>
+      </c>
+      <c r="U6">
+        <v>16007585528</v>
+      </c>
+      <c r="V6">
+        <v>20228669958</v>
+      </c>
+      <c r="W6">
+        <v>20228669958</v>
+      </c>
+      <c r="X6">
+        <v>20228669958</v>
+      </c>
+      <c r="Y6">
+        <v>20228669958</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.1944448280816536</v>
@@ -720,10 +829,34 @@
       <c r="Q7">
         <v>-0.2811264754306554</v>
       </c>
+      <c r="R7">
+        <v>2770915272</v>
+      </c>
+      <c r="S7">
+        <v>-7824629507</v>
+      </c>
+      <c r="T7">
+        <v>-6943500091</v>
+      </c>
+      <c r="U7">
+        <v>-7824629507</v>
+      </c>
+      <c r="V7">
+        <v>-8693540732</v>
+      </c>
+      <c r="W7">
+        <v>-8693540732</v>
+      </c>
+      <c r="X7">
+        <v>-8693540732</v>
+      </c>
+      <c r="Y7">
+        <v>-8693540732</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.01407397114927391</v>
@@ -773,11 +906,36 @@
       <c r="Q8">
         <v>0.4227566971012392</v>
       </c>
+      <c r="R8">
+        <v>37772977295</v>
+      </c>
+      <c r="S8">
+        <v>43238497013</v>
+      </c>
+      <c r="T8">
+        <v>37492196667</v>
+      </c>
+      <c r="U8">
+        <v>43740019703</v>
+      </c>
+      <c r="V8">
+        <v>45733381438</v>
+      </c>
+      <c r="W8">
+        <v>45733381438</v>
+      </c>
+      <c r="X8">
+        <v>45733381438</v>
+      </c>
+      <c r="Y8">
+        <v>45733381438</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sep19/pos_gains/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/pos_gains/Tables/income_no_tax_havens.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -557,16 +557,16 @@
         <v>0.03417737510541566</v>
       </c>
       <c r="D4">
+        <v>0.01093635869920273</v>
+      </c>
+      <c r="E4">
+        <v>0.009072691627789734</v>
+      </c>
+      <c r="F4">
         <v>0.05468179349601363</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.04536345813894876</v>
-      </c>
-      <c r="F4">
-        <v>0.01763847456075515</v>
-      </c>
-      <c r="G4">
-        <v>0.0171409301257789</v>
       </c>
       <c r="H4">
         <v>0.08819237280377575</v>
@@ -587,10 +587,10 @@
         <v>0.2136744744392</v>
       </c>
       <c r="N4">
-        <v>0.2150956608568527</v>
+        <v>0.2136872993148446</v>
       </c>
       <c r="O4">
-        <v>0.2150956608568527</v>
+        <v>0.2136744744392</v>
       </c>
       <c r="P4">
         <v>0.2150956608568527</v>
@@ -611,10 +611,10 @@
         <v>955751087452</v>
       </c>
       <c r="V4">
-        <v>1007534436142</v>
+        <v>955500195836</v>
       </c>
       <c r="W4">
-        <v>1007534436142</v>
+        <v>955751087452</v>
       </c>
       <c r="X4">
         <v>1007534436142</v>
@@ -634,16 +634,16 @@
         <v>0.220418569686488</v>
       </c>
       <c r="D5">
+        <v>0.02973125562628548</v>
+      </c>
+      <c r="E5">
+        <v>0.0434634358097193</v>
+      </c>
+      <c r="F5">
         <v>0.1486562781314273</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.2173171790485965</v>
-      </c>
-      <c r="F5">
-        <v>0.001869476515915335</v>
-      </c>
-      <c r="G5">
-        <v>0.006826231385330679</v>
       </c>
       <c r="H5">
         <v>0.009347382579576683</v>
@@ -711,16 +711,16 @@
         <v>0.2321516023582444</v>
       </c>
       <c r="D6">
+        <v>0.01387800792749046</v>
+      </c>
+      <c r="E6">
+        <v>0.03124031414955012</v>
+      </c>
+      <c r="F6">
         <v>0.06939003963745231</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.1562015707477506</v>
-      </c>
-      <c r="F6">
-        <v>0.002524192199836761</v>
-      </c>
-      <c r="G6">
-        <v>0.008899352632122867</v>
       </c>
       <c r="H6">
         <v>0.01262096099918382</v>
@@ -741,10 +741,10 @@
         <v>0.4751809436654225</v>
       </c>
       <c r="N6">
-        <v>0.4401966017285495</v>
+        <v>2.695101883716374</v>
       </c>
       <c r="O6">
-        <v>0.4401966017285495</v>
+        <v>0.4751809436654225</v>
       </c>
       <c r="P6">
         <v>0.4401966017285495</v>
@@ -765,10 +765,10 @@
         <v>16007585528</v>
       </c>
       <c r="V6">
-        <v>20228669958</v>
+        <v>1074779159</v>
       </c>
       <c r="W6">
-        <v>20228669958</v>
+        <v>16007585528</v>
       </c>
       <c r="X6">
         <v>20228669958</v>
@@ -788,16 +788,16 @@
         <v>0.2015307634244214</v>
       </c>
       <c r="D7">
+        <v>0.05508305901430718</v>
+      </c>
+      <c r="E7">
+        <v>0.04152435081943773</v>
+      </c>
+      <c r="F7">
         <v>0.2754152950715359</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.2076217540971887</v>
-      </c>
-      <c r="F7">
-        <v>0.02760124805687177</v>
-      </c>
-      <c r="G7">
-        <v>0.02197348357269908</v>
       </c>
       <c r="H7">
         <v>0.1380062402843588</v>
@@ -818,10 +818,10 @@
         <v>-0.3565134145334812</v>
       </c>
       <c r="N7">
-        <v>-0.2811264754306554</v>
+        <v>-0.4109354431633722</v>
       </c>
       <c r="O7">
-        <v>-0.2811264754306554</v>
+        <v>-0.3565134145334812</v>
       </c>
       <c r="P7">
         <v>-0.2811264754306554</v>
@@ -842,10 +842,10 @@
         <v>-7824629507</v>
       </c>
       <c r="V7">
-        <v>-8693540732</v>
+        <v>-6943500091</v>
       </c>
       <c r="W7">
-        <v>-8693540732</v>
+        <v>-7824629507</v>
       </c>
       <c r="X7">
         <v>-8693540732</v>
@@ -865,16 +865,16 @@
         <v>0.03686210525886629</v>
       </c>
       <c r="D8">
+        <v>0.002682359336613213</v>
+      </c>
+      <c r="E8">
+        <v>0.005695999317677495</v>
+      </c>
+      <c r="F8">
         <v>0.01341179668306607</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.02847999658838746</v>
-      </c>
-      <c r="F8">
-        <v>0.001442548427604388</v>
-      </c>
-      <c r="G8">
-        <v>0.002578517222690498</v>
       </c>
       <c r="H8">
         <v>0.007212742138021941</v>
@@ -895,10 +895,10 @@
         <v>0.4202158248625423</v>
       </c>
       <c r="N8">
-        <v>0.4227566971012392</v>
+        <v>0.4626563873828087</v>
       </c>
       <c r="O8">
-        <v>0.4227566971012392</v>
+        <v>0.4202158248625423</v>
       </c>
       <c r="P8">
         <v>0.4227566971012392</v>
@@ -919,10 +919,10 @@
         <v>43740019703</v>
       </c>
       <c r="V8">
-        <v>45733381438</v>
+        <v>37492196667</v>
       </c>
       <c r="W8">
-        <v>45733381438</v>
+        <v>43740019703</v>
       </c>
       <c r="X8">
         <v>45733381438</v>

--- a/Sep19/pos_gains/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/pos_gains/Tables/income_no_tax_havens.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -557,22 +557,22 @@
         <v>0.03417737510541566</v>
       </c>
       <c r="D4">
-        <v>0.01093635869920273</v>
+        <v>0.05468179349601363</v>
       </c>
       <c r="E4">
-        <v>0.009072691627789734</v>
+        <v>0.04536345813894876</v>
       </c>
       <c r="F4">
-        <v>0.05468179349601363</v>
+        <v>0.006421517942491141</v>
       </c>
       <c r="G4">
-        <v>0.04536345813894876</v>
+        <v>0.004592126842386228</v>
       </c>
       <c r="H4">
-        <v>0.08819237280377575</v>
+        <v>0.03210758971245582</v>
       </c>
       <c r="I4">
-        <v>0.0857046506288944</v>
+        <v>0.02296063421193125</v>
       </c>
       <c r="J4">
         <v>0.2159799093534937</v>
@@ -587,16 +587,16 @@
         <v>0.2136744744392</v>
       </c>
       <c r="N4">
-        <v>0.2136872993148446</v>
+        <v>0.2159799093534937</v>
       </c>
       <c r="O4">
-        <v>0.2136744744392</v>
+        <v>0.2159665133674397</v>
       </c>
       <c r="P4">
-        <v>0.2150956608568527</v>
+        <v>0.2159799093534937</v>
       </c>
       <c r="Q4">
-        <v>0.2150956608568527</v>
+        <v>0.2159665133674397</v>
       </c>
       <c r="R4">
         <v>957691691302</v>
@@ -611,16 +611,16 @@
         <v>955751087452</v>
       </c>
       <c r="V4">
-        <v>955500195836</v>
+        <v>957691691302</v>
       </c>
       <c r="W4">
-        <v>955751087452</v>
+        <v>957942582918</v>
       </c>
       <c r="X4">
-        <v>1007534436142</v>
+        <v>957691691302</v>
       </c>
       <c r="Y4">
-        <v>1007534436142</v>
+        <v>957942582918</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -634,22 +634,22 @@
         <v>0.220418569686488</v>
       </c>
       <c r="D5">
-        <v>0.02973125562628548</v>
+        <v>0.1486562781314273</v>
       </c>
       <c r="E5">
-        <v>0.0434634358097193</v>
+        <v>0.2173171790485965</v>
       </c>
       <c r="F5">
-        <v>0.1486562781314273</v>
+        <v>0.01588361176359958</v>
       </c>
       <c r="G5">
-        <v>0.2173171790485965</v>
+        <v>0.02961579194703341</v>
       </c>
       <c r="H5">
-        <v>0.009347382579576683</v>
+        <v>0.07941805881799788</v>
       </c>
       <c r="I5">
-        <v>0.03413115692665337</v>
+        <v>0.148078959735167</v>
       </c>
       <c r="J5">
         <v>-0.1999315794267103</v>
@@ -711,22 +711,22 @@
         <v>0.2321516023582444</v>
       </c>
       <c r="D6">
-        <v>0.01387800792749046</v>
+        <v>0.06939003963745231</v>
       </c>
       <c r="E6">
-        <v>0.03124031414955012</v>
+        <v>0.1562015707477506</v>
       </c>
       <c r="F6">
-        <v>0.06939003963745231</v>
+        <v>0.003149854533657695</v>
       </c>
       <c r="G6">
-        <v>0.1562015707477506</v>
+        <v>0.0311922610031965</v>
       </c>
       <c r="H6">
-        <v>0.01262096099918382</v>
+        <v>0.01574927266828847</v>
       </c>
       <c r="I6">
-        <v>0.04449676316061433</v>
+        <v>0.1559613050159825</v>
       </c>
       <c r="J6">
         <v>1.971404582837186</v>
@@ -741,16 +741,16 @@
         <v>0.4751809436654225</v>
       </c>
       <c r="N6">
-        <v>2.695101883716374</v>
+        <v>1.971404582837186</v>
       </c>
       <c r="O6">
-        <v>0.4751809436654225</v>
+        <v>0.4058212418333189</v>
       </c>
       <c r="P6">
-        <v>0.4401966017285495</v>
+        <v>1.971404582837186</v>
       </c>
       <c r="Q6">
-        <v>0.4401966017285495</v>
+        <v>0.4058212418333189</v>
       </c>
       <c r="R6">
         <v>1507896554</v>
@@ -765,16 +765,16 @@
         <v>16007585528</v>
       </c>
       <c r="V6">
-        <v>1074779159</v>
+        <v>1507896554</v>
       </c>
       <c r="W6">
-        <v>16007585528</v>
+        <v>15012781826</v>
       </c>
       <c r="X6">
-        <v>20228669958</v>
+        <v>1507896554</v>
       </c>
       <c r="Y6">
-        <v>20228669958</v>
+        <v>15012781826</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -788,22 +788,22 @@
         <v>0.2015307634244214</v>
       </c>
       <c r="D7">
-        <v>0.05508305901430718</v>
+        <v>0.2754152950715359</v>
       </c>
       <c r="E7">
-        <v>0.04152435081943773</v>
+        <v>0.2076217540971887</v>
       </c>
       <c r="F7">
-        <v>0.2754152950715359</v>
+        <v>0.02612591843706145</v>
       </c>
       <c r="G7">
-        <v>0.2076217540971887</v>
+        <v>0.02707799605538568</v>
       </c>
       <c r="H7">
-        <v>0.1380062402843588</v>
+        <v>0.1306295921853073</v>
       </c>
       <c r="I7">
-        <v>0.1098674178634954</v>
+        <v>0.1353899802769283</v>
       </c>
       <c r="J7">
         <v>1.60158967682791</v>
@@ -818,16 +818,16 @@
         <v>-0.3565134145334812</v>
       </c>
       <c r="N7">
-        <v>-0.4109354431633722</v>
+        <v>1.60158967682791</v>
       </c>
       <c r="O7">
         <v>-0.3565134145334812</v>
       </c>
       <c r="P7">
-        <v>-0.2811264754306554</v>
+        <v>1.60158967682791</v>
       </c>
       <c r="Q7">
-        <v>-0.2811264754306554</v>
+        <v>-0.3565134145334812</v>
       </c>
       <c r="R7">
         <v>2770915272</v>
@@ -842,16 +842,16 @@
         <v>-7824629507</v>
       </c>
       <c r="V7">
-        <v>-6943500091</v>
+        <v>2770915272</v>
       </c>
       <c r="W7">
         <v>-7824629507</v>
       </c>
       <c r="X7">
-        <v>-8693540732</v>
+        <v>2770915272</v>
       </c>
       <c r="Y7">
-        <v>-8693540732</v>
+        <v>-7824629507</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -865,22 +865,22 @@
         <v>0.03686210525886629</v>
       </c>
       <c r="D8">
-        <v>0.002682359336613213</v>
+        <v>0.01341179668306607</v>
       </c>
       <c r="E8">
-        <v>0.005695999317677495</v>
+        <v>0.02847999658838746</v>
       </c>
       <c r="F8">
-        <v>0.01341179668306607</v>
+        <v>0.00189100129820413</v>
       </c>
       <c r="G8">
-        <v>0.02847999658838746</v>
+        <v>0.004952851484468878</v>
       </c>
       <c r="H8">
-        <v>0.007212742138021941</v>
+        <v>0.009455006491020655</v>
       </c>
       <c r="I8">
-        <v>0.01289258611345249</v>
+        <v>0.02476425742234441</v>
       </c>
       <c r="J8">
         <v>0.4576722058202269</v>
@@ -895,16 +895,16 @@
         <v>0.4202158248625423</v>
       </c>
       <c r="N8">
-        <v>0.4626563873828087</v>
+        <v>0.4576722058202269</v>
       </c>
       <c r="O8">
-        <v>0.4202158248625423</v>
+        <v>0.4206724983879818</v>
       </c>
       <c r="P8">
-        <v>0.4227566971012392</v>
+        <v>0.4576722058202269</v>
       </c>
       <c r="Q8">
-        <v>0.4227566971012392</v>
+        <v>0.4206724983879818</v>
       </c>
       <c r="R8">
         <v>37772977295</v>
@@ -919,16 +919,16 @@
         <v>43740019703</v>
       </c>
       <c r="V8">
-        <v>37492196667</v>
+        <v>37772977295</v>
       </c>
       <c r="W8">
-        <v>43740019703</v>
+        <v>43238497013</v>
       </c>
       <c r="X8">
-        <v>45733381438</v>
+        <v>37772977295</v>
       </c>
       <c r="Y8">
-        <v>45733381438</v>
+        <v>43238497013</v>
       </c>
     </row>
   </sheetData>
